--- a/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,6 +49,12 @@
     <t>嘉实新优选灵活配置混合</t>
   </si>
   <si>
+    <t>15.44</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
     <t>82.24</t>
   </si>
   <si>
@@ -53,6 +65,12 @@
   </si>
   <si>
     <t>0.71</t>
+  </si>
+  <si>
+    <t>0.8075</t>
+  </si>
+  <si>
+    <t>0.0004</t>
   </si>
 </sst>
 </file>
@@ -410,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,44 +450,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>519702</t>
-  </si>
-  <si>
-    <t>002149</t>
-  </si>
-  <si>
-    <t>交银趋势优先混合</t>
-  </si>
-  <si>
-    <t>嘉实新优选灵活配置混合</t>
-  </si>
-  <si>
-    <t>15.44</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>82.24</t>
-  </si>
-  <si>
-    <t>34.43</t>
-  </si>
-  <si>
-    <t>5.23</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.8075</t>
-  </si>
-  <si>
-    <t>0.0004</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8075</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2671</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4152</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,14 +977,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -972,14 +1067,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>4.06</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -988,13 +1083,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.8100000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +1162,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -1083,14 +1178,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>4.06</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -1099,13 +1194,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.8100000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.17</v>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5532</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1178,14 +1243,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -1194,14 +1281,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.06</v>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1319,241 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.8100000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银趋势优先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8075</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002149</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实新优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>34.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090018</t>
+          <t>160910</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成新锐产业混合</t>
+          <t>大成创新成长混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.13</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.08</t>
+          <t>88.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4282</t>
+          <t>0.5532</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -677,32 +677,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银趋势优先混合</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>38.75</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.83</t>
+          <t>80.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2671</t>
+          <t>0.1658</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -715,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001300</t>
+          <t>008185</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合A</t>
+          <t>诺安研究优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.41</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.59</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9524</t>
+          <t>0.0989</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +753,148 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001301</t>
+          <t>000066</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合C</t>
+          <t>诺安鸿鑫混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.59</t>
+          <t>79.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4152</t>
+          <t>0.0348</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,7 +929,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -857,64 +969,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.47</t>
+          <t>87.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1470</t>
+          <t>0.1742</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001744</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安进取回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>37.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,7 +1117,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1083,26 +1157,64 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.76</t>
+          <t>88.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1742</t>
+          <t>0.1470</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1249,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1167,36 +1279,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160910</t>
+          <t>090018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成创新成长混合(LOF)</t>
+          <t>大成新锐产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.55</t>
+          <t>42.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.33</t>
+          <t>89.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5532</t>
+          <t>1.4282</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1205,32 +1317,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>交银趋势优先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>38.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.79</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1658</t>
+          <t>1.2671</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1243,36 +1355,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008185</t>
+          <t>001300</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安研究优选混合</t>
+          <t>大成睿景灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>22.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>88.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0989</t>
+          <t>0.9524</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1281,148 +1393,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000066</t>
+          <t>001301</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安鸿鑫混合</t>
+          <t>大成睿景灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.06</t>
+          <t>88.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0348</t>
+          <t>0.4152</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>014497</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安研究优选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006025</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安优化配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>62.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>014498</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺安鸿鑫混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1436,128 +1436,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.88</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8075</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.06</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8100000000000001</v>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
-        <v>0.88</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.17</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>4.06</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.8100000000000001</v>
       </c>
     </row>
@@ -583,6 +600,2868 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8614</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6671</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011930</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏时代前沿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6076</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012985</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4563</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2929</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成产业升级股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2855</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012917</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011931</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏时代前沿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012986</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013687</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013688</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007387</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>融通通慧混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002612</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>融通通慧混合A/B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012918</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>33.42</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>33.42</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>016463</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>016461</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -895,100 +3774,6 @@
       </c>
       <c r="H8" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1742</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1068,21 +3853,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.07</t>
+          <t>87.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1580</t>
+          <t>0.1742</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1091,6 +3876,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1222,7 +4101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1430,7 +4309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300910-瑞丰新材.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D2" t="n">
-        <v>8.33</v>
+        <v>18.91</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D3" t="n">
-        <v>0.88</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>4.06</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.8100000000000001</v>
       </c>
     </row>
@@ -600,6 +617,3176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>303.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3742</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2482</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7543</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银智能制造股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7380</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6465</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6255</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6112</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6031</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5015</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012631</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4986</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012181</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014347</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014718</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013466</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014348</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001420</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方大数据300指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013465</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015466</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014719</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015633</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中金景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001426</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方大数据300指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015634</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>016461</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015467</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3461,7 +6648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3774,100 +6961,6 @@
       </c>
       <c r="H8" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1742</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3947,21 +7040,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.07</t>
+          <t>87.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1580</t>
+          <t>0.1742</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3970,6 +7063,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4101,7 +7288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4309,7 +7496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
